--- a/Codemig/Magnet Fit/Input.xlsx
+++ b/Codemig/Magnet Fit/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +70,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -87,11 +111,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +241,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1291,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7890,8 +8009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7900,1223 +8019,575 @@
     <col min="8" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3">
-        <v>20</v>
-      </c>
-      <c r="S1" s="3">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3">
-        <v>20</v>
-      </c>
-      <c r="X1" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AN1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AP1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AQ1" s="3">
-        <v>20</v>
-      </c>
-      <c r="AR1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AS1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AT1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AU1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AV1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AW1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AX1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AY1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AZ1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BA1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BB1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BC1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BD1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BE1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BF1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BG1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BH1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BI1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BJ1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BK1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BL1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BM1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BN1" s="3">
-        <v>25</v>
-      </c>
-      <c r="BO1" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5">
-        <v>41</v>
-      </c>
-      <c r="D2" s="6">
-        <v>38</v>
-      </c>
-      <c r="E2" s="6">
-        <v>41</v>
-      </c>
-      <c r="F2" s="5">
-        <v>51.097999999999999</v>
-      </c>
-      <c r="G2" s="5">
-        <v>47</v>
-      </c>
-      <c r="H2" s="5">
-        <v>61.988</v>
-      </c>
-      <c r="I2" s="5">
-        <v>58.37</v>
-      </c>
-      <c r="J2" s="6">
-        <v>42</v>
-      </c>
-      <c r="K2" s="5">
-        <v>61.324999999999996</v>
-      </c>
-      <c r="L2" s="6">
-        <v>47</v>
-      </c>
-      <c r="M2" s="5">
-        <v>59.761000000000003</v>
-      </c>
-      <c r="N2" s="6">
-        <v>53</v>
-      </c>
-      <c r="O2" s="5">
-        <v>64.144000000000005</v>
-      </c>
-      <c r="P2" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>52</v>
-      </c>
-      <c r="R2" s="5">
-        <v>75.816999999999993</v>
-      </c>
-      <c r="S2" s="5">
-        <v>72.971999999999994</v>
-      </c>
-      <c r="T2" s="5">
-        <v>69.108000000000004</v>
-      </c>
-      <c r="U2" s="6">
-        <v>60</v>
-      </c>
-      <c r="V2" s="6">
-        <v>52</v>
-      </c>
-      <c r="W2" s="6">
-        <v>59</v>
-      </c>
-      <c r="X2" s="6">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>91.147000000000006</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>85.495000000000005</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>80.813999999999993</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>76</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>107.997</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>98.810999999999993</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>86</v>
-      </c>
-      <c r="AJ2" s="6">
+    <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24">
+        <v>30</v>
+      </c>
+      <c r="C1" s="24">
+        <v>30</v>
+      </c>
+      <c r="D1" s="24">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24">
+        <v>30</v>
+      </c>
+      <c r="F1" s="24">
+        <v>30</v>
+      </c>
+      <c r="G1" s="24">
+        <v>30</v>
+      </c>
+      <c r="H1" s="24">
+        <v>30</v>
+      </c>
+      <c r="I1" s="24">
+        <v>30</v>
+      </c>
+      <c r="J1" s="24">
+        <v>30</v>
+      </c>
+      <c r="K1" s="24">
+        <v>30</v>
+      </c>
+      <c r="L1" s="24">
+        <v>30</v>
+      </c>
+      <c r="M1" s="24">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+    </row>
+    <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>80</v>
       </c>
-      <c r="AK2" s="5">
-        <v>126.38</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="6">
-        <v>96</v>
-      </c>
-      <c r="AN2" s="3">
+      <c r="B2" s="25">
+        <v>80</v>
+      </c>
+      <c r="C2" s="25">
+        <v>80</v>
+      </c>
+      <c r="D2" s="25">
+        <v>80</v>
+      </c>
+      <c r="E2" s="25">
+        <v>80</v>
+      </c>
+      <c r="F2" s="25">
+        <v>80</v>
+      </c>
+      <c r="G2" s="25">
+        <v>80</v>
+      </c>
+      <c r="H2" s="25">
+        <v>80</v>
+      </c>
+      <c r="I2" s="25">
+        <v>80</v>
+      </c>
+      <c r="J2" s="25">
+        <v>80</v>
+      </c>
+      <c r="K2" s="25">
+        <v>80</v>
+      </c>
+      <c r="L2" s="25">
+        <v>80</v>
+      </c>
+      <c r="M2" s="25">
+        <v>100</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+    </row>
+    <row r="3" spans="1:67" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>100</v>
+      </c>
+      <c r="B3" s="26">
+        <v>100</v>
+      </c>
+      <c r="C3" s="26">
+        <v>100</v>
+      </c>
+      <c r="D3" s="26">
+        <v>100</v>
+      </c>
+      <c r="E3" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="G3" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="H3" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="I3" s="26">
+        <v>115</v>
+      </c>
+      <c r="J3" s="26">
+        <v>115</v>
+      </c>
+      <c r="K3" s="26">
+        <v>115</v>
+      </c>
+      <c r="L3" s="26">
+        <v>115</v>
+      </c>
+      <c r="M3" s="26">
         <v>120</v>
       </c>
-      <c r="AO2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>106</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>146.30599999999998</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>120</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>140</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>140</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>120</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>140</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3">
-        <v>69</v>
-      </c>
-      <c r="C3" s="3">
-        <v>73</v>
-      </c>
-      <c r="D3" s="3">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3">
-        <v>79.097999999999999</v>
-      </c>
-      <c r="G3" s="3">
-        <v>79</v>
-      </c>
-      <c r="H3" s="3">
-        <v>89.988</v>
-      </c>
-      <c r="I3" s="3">
-        <v>86.37</v>
-      </c>
-      <c r="J3" s="3">
-        <v>74</v>
-      </c>
-      <c r="K3" s="3">
-        <v>89.324999999999989</v>
-      </c>
-      <c r="L3" s="3">
-        <v>79</v>
-      </c>
-      <c r="M3" s="3">
-        <v>87.760999999999996</v>
-      </c>
-      <c r="N3" s="3">
-        <v>85</v>
-      </c>
-      <c r="O3" s="3">
-        <v>96.144000000000005</v>
-      </c>
-      <c r="P3" s="3">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>84</v>
-      </c>
-      <c r="R3" s="3">
-        <v>103.81699999999999</v>
-      </c>
-      <c r="S3" s="3">
-        <v>100.97199999999999</v>
-      </c>
-      <c r="T3" s="3">
-        <v>97.108000000000004</v>
-      </c>
-      <c r="U3" s="3">
-        <v>92</v>
-      </c>
-      <c r="V3" s="3">
-        <v>84</v>
-      </c>
-      <c r="W3" s="3">
-        <v>91</v>
-      </c>
-      <c r="X3" s="3">
-        <v>99</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>119.14700000000001</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>113.495</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>96</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>108.81399999999999</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>103</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>108</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>135.99700000000001</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>126.81099999999999</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>103</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>118</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>154.38</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>109</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>128</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>140</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>145</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>138</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>174.30599999999998</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>140</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>145</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>140</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>145</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>145</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>165</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>170</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>140</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>145</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>165</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>140</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>170</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>145</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>140</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>145</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>165</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>165</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>170</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>170</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>165</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>170</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>165</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3">
-        <v>93</v>
-      </c>
-      <c r="C4" s="3">
-        <v>96</v>
-      </c>
-      <c r="D4" s="3">
-        <v>99</v>
-      </c>
-      <c r="E4" s="3">
-        <v>103</v>
-      </c>
-      <c r="F4" s="3">
-        <v>103.46900000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>109</v>
-      </c>
-      <c r="H4" s="3">
-        <v>109.27099999999999</v>
-      </c>
-      <c r="I4" s="3">
-        <v>109.91</v>
-      </c>
-      <c r="J4" s="3">
-        <v>110</v>
-      </c>
-      <c r="K4" s="3">
-        <v>115.991</v>
-      </c>
-      <c r="L4" s="3">
-        <v>116</v>
-      </c>
-      <c r="M4" s="3">
-        <v>118.645</v>
-      </c>
-      <c r="N4" s="3">
-        <v>120</v>
-      </c>
-      <c r="O4" s="3">
-        <v>121.771</v>
-      </c>
-      <c r="P4" s="3">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>128</v>
-      </c>
-      <c r="R4" s="3">
-        <v>128.554</v>
-      </c>
-      <c r="S4" s="3">
-        <v>134.53300000000002</v>
-      </c>
-      <c r="T4" s="3">
-        <v>134.833</v>
-      </c>
-      <c r="U4" s="3">
-        <v>135</v>
-      </c>
-      <c r="V4" s="3">
-        <v>136</v>
-      </c>
-      <c r="W4" s="3">
-        <v>143</v>
-      </c>
-      <c r="X4" s="3">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>150.01300000000001</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>154.255</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>155</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>155.49699999999999</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>164</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>165</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>166</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>173.66200000000001</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>175.114</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>182</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>187</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>190</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>199.512</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>200</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>208</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>217</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>220</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>227</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>227.57</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>232</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>236</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>247</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>247</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>250</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>250</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>255</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>259</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>260</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>263</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>273</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>273</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>276</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>276</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>286</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>288</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>290</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>290</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>293</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>293</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>306</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>309</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>321</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AN5" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+    </row>
+    <row r="4" spans="1:67" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>160</v>
+      </c>
+      <c r="B4" s="23">
+        <v>167</v>
+      </c>
+      <c r="C4" s="23">
+        <v>188</v>
+      </c>
+      <c r="D4" s="23">
+        <v>213</v>
+      </c>
+      <c r="E4" s="23">
+        <v>180.5</v>
+      </c>
+      <c r="F4" s="23">
+        <v>189.5</v>
+      </c>
+      <c r="G4" s="23">
+        <v>215.5</v>
+      </c>
+      <c r="H4" s="23">
+        <v>250.5</v>
+      </c>
+      <c r="I4" s="23">
+        <v>193</v>
+      </c>
+      <c r="J4" s="23">
+        <v>210</v>
+      </c>
+      <c r="K4" s="23">
+        <v>246</v>
+      </c>
+      <c r="L4" s="23">
+        <v>297</v>
+      </c>
+      <c r="M4" s="23">
+        <v>184.5</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="J5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="K5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="L5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M5" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1.35</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1.55</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="24">
         <v>1.3</v>
       </c>
-      <c r="AO5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BD5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BF5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BK5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BL5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BM5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.70389999999999997</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.67</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0.82350000000000001</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1.0255000000000001</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0.98260000000000003</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>1.0798000000000001</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>1.0222</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>1.0708</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>1.1366000000000001</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>1.0751999999999999</v>
-      </c>
-      <c r="AN6" s="3">
+      <c r="K6" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="M6" s="24">
         <v>1.2</v>
       </c>
-      <c r="AO6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>1.1116999999999999</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="BK6" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BL6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="BM6" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>1.4</v>
-      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -9216,10 +8687,10 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>20</v>
       </c>
@@ -9238,8 +8709,26 @@
       <c r="F11" s="3">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="H11" s="20">
+        <v>30</v>
+      </c>
+      <c r="I11" s="21">
+        <v>80</v>
+      </c>
+      <c r="J11" s="22">
+        <v>100</v>
+      </c>
+      <c r="K11" s="23">
+        <v>160</v>
+      </c>
+      <c r="L11" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -9258,8 +8747,26 @@
       <c r="F12" s="3">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="H12" s="24">
+        <v>30</v>
+      </c>
+      <c r="I12" s="25">
+        <v>80</v>
+      </c>
+      <c r="J12" s="26">
+        <v>100</v>
+      </c>
+      <c r="K12" s="23">
+        <v>167</v>
+      </c>
+      <c r="L12" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>20</v>
       </c>
@@ -9278,16 +8785,28 @@
       <c r="F13" s="3">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="11"/>
+      <c r="H13" s="24">
+        <v>30</v>
+      </c>
+      <c r="I13" s="25">
+        <v>80</v>
+      </c>
+      <c r="J13" s="26">
+        <v>100</v>
+      </c>
+      <c r="K13" s="23">
+        <v>188</v>
+      </c>
+      <c r="L13" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1.6</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -9306,16 +8825,28 @@
       <c r="F14" s="3">
         <v>0.66900000000000004</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="11"/>
+      <c r="H14" s="24">
+        <v>30</v>
+      </c>
+      <c r="I14" s="25">
+        <v>80</v>
+      </c>
+      <c r="J14" s="26">
+        <v>100</v>
+      </c>
+      <c r="K14" s="23">
+        <v>213</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M14" s="24">
+        <v>1.8</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -9334,16 +8865,28 @@
       <c r="F15" s="3">
         <v>0.68899999999999995</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="11"/>
+      <c r="H15" s="24">
+        <v>30</v>
+      </c>
+      <c r="I15" s="25">
+        <v>80</v>
+      </c>
+      <c r="J15" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="K15" s="23">
+        <v>180.5</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M15" s="24">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -9362,16 +8905,28 @@
       <c r="F16" s="3">
         <v>0.66200000000000003</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="11"/>
+      <c r="H16" s="24">
+        <v>30</v>
+      </c>
+      <c r="I16" s="25">
+        <v>80</v>
+      </c>
+      <c r="J16" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="K16" s="23">
+        <v>189.5</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M16" s="24">
+        <v>1.35</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -9390,16 +8945,28 @@
       <c r="F17" s="3">
         <v>0.70389999999999997</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="11"/>
+      <c r="H17" s="24">
+        <v>30</v>
+      </c>
+      <c r="I17" s="25">
+        <v>80</v>
+      </c>
+      <c r="J17" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="K17" s="23">
+        <v>215.5</v>
+      </c>
+      <c r="L17" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1.55</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>20</v>
       </c>
@@ -9418,16 +8985,28 @@
       <c r="F18" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="11"/>
+      <c r="H18" s="24">
+        <v>30</v>
+      </c>
+      <c r="I18" s="25">
+        <v>80</v>
+      </c>
+      <c r="J18" s="26">
+        <v>107.5</v>
+      </c>
+      <c r="K18" s="23">
+        <v>250.5</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M18" s="24">
+        <v>1.75</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -9446,16 +9025,28 @@
       <c r="F19" s="3">
         <v>0.67</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="11"/>
+      <c r="H19" s="24">
+        <v>30</v>
+      </c>
+      <c r="I19" s="25">
+        <v>80</v>
+      </c>
+      <c r="J19" s="26">
+        <v>115</v>
+      </c>
+      <c r="K19" s="23">
+        <v>193</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M19" s="24">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -9474,16 +9065,28 @@
       <c r="F20" s="3">
         <v>0.75600000000000001</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
+      <c r="H20" s="24">
+        <v>30</v>
+      </c>
+      <c r="I20" s="25">
+        <v>80</v>
+      </c>
+      <c r="J20" s="26">
+        <v>115</v>
+      </c>
+      <c r="K20" s="23">
+        <v>210</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M20" s="24">
+        <v>1.3</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9502,16 +9105,28 @@
       <c r="F21" s="3">
         <v>0.70250000000000001</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
+      <c r="H21" s="24">
+        <v>30</v>
+      </c>
+      <c r="I21" s="25">
+        <v>80</v>
+      </c>
+      <c r="J21" s="26">
+        <v>115</v>
+      </c>
+      <c r="K21" s="23">
+        <v>246</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M21" s="24">
+        <v>1.5</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -9530,16 +9145,28 @@
       <c r="F22" s="3">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
+      <c r="H22" s="24">
+        <v>30</v>
+      </c>
+      <c r="I22" s="25">
+        <v>80</v>
+      </c>
+      <c r="J22" s="26">
+        <v>115</v>
+      </c>
+      <c r="K22" s="23">
+        <v>297</v>
+      </c>
+      <c r="L22" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M22" s="24">
+        <v>1.7</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -9558,12 +9185,24 @@
       <c r="F23" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
+      <c r="H23" s="24">
+        <v>30</v>
+      </c>
+      <c r="I23" s="25">
+        <v>100</v>
+      </c>
+      <c r="J23" s="26">
+        <v>120</v>
+      </c>
+      <c r="K23" s="23">
+        <v>184.5</v>
+      </c>
+      <c r="L23" s="20">
+        <v>1.26</v>
+      </c>
+      <c r="M23" s="24">
+        <v>1.2</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
@@ -11041,8 +10680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11087,7 +10726,7 @@
         <v>0.67</v>
       </c>
       <c r="H2" s="3">
-        <f>(D2^2-C2^2)/(B2^2-A2^2)</f>
+        <f t="shared" ref="H2:H47" si="0">(D2^2-C2^2)/(B2^2-A2^2)</f>
         <v>1.5365293553307886</v>
       </c>
       <c r="I2" s="3">
@@ -11117,7 +10756,7 @@
         <v>0.70250000000000001</v>
       </c>
       <c r="H3" s="3">
-        <f>(D3^2-C3^2)/(B3^2-A3^2)</f>
+        <f t="shared" si="0"/>
         <v>1.62908496389112</v>
       </c>
       <c r="I3" s="3">
@@ -11147,7 +10786,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="H4" s="3">
-        <f>(D4^2-C4^2)/(B4^2-A4^2)</f>
+        <f t="shared" si="0"/>
         <v>1.6048575176148758</v>
       </c>
       <c r="I4" s="3">
@@ -11177,7 +10816,7 @@
         <v>0.82350000000000001</v>
       </c>
       <c r="H5" s="3">
-        <f>(D5^2-C5^2)/(B5^2-A5^2)</f>
+        <f t="shared" si="0"/>
         <v>1.5795145538085651</v>
       </c>
       <c r="I5" s="3">
@@ -11207,7 +10846,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="H6" s="3">
-        <f>(D6^2-C6^2)/(B6^2-A6^2)</f>
+        <f t="shared" si="0"/>
         <v>1.5575058636060972</v>
       </c>
       <c r="I6" s="3">
@@ -11237,7 +10876,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="H7" s="3">
-        <f>(D7^2-C7^2)/(B7^2-A7^2)</f>
+        <f t="shared" si="0"/>
         <v>1.5076356211359556</v>
       </c>
       <c r="I7" s="3">
@@ -11267,7 +10906,7 @@
         <v>0.66</v>
       </c>
       <c r="H8" s="3">
-        <f>(D8^2-C8^2)/(B8^2-A8^2)</f>
+        <f t="shared" si="0"/>
         <v>1.503453698811581</v>
       </c>
       <c r="I8" s="3">
@@ -11297,7 +10936,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="H9" s="3">
-        <f>(D9^2-C9^2)/(B9^2-A9^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0123605064367815</v>
       </c>
       <c r="I9" s="3">
@@ -11327,7 +10966,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="H10" s="3">
-        <f>(D10^2-C10^2)/(B10^2-A10^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0100551466392442</v>
       </c>
       <c r="I10" s="3">
@@ -11357,7 +10996,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="H11" s="3">
-        <f>(D11^2-C11^2)/(B11^2-A11^2)</f>
+        <f t="shared" si="0"/>
         <v>1.9995756081372225</v>
       </c>
       <c r="I11" s="3">
@@ -11387,7 +11026,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H12" s="3">
-        <f>(D12^2-C12^2)/(B12^2-A12^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0125634390359179</v>
       </c>
       <c r="I12" s="3">
@@ -11417,7 +11056,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="H13" s="3">
-        <f>(D13^2-C13^2)/(B13^2-A13^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0140323448012012</v>
       </c>
       <c r="I13" s="3">
@@ -11447,7 +11086,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="H14" s="3">
-        <f>(D14^2-C14^2)/(B14^2-A14^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0109289127973118</v>
       </c>
       <c r="I14" s="3">
@@ -11477,7 +11116,7 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="H15" s="3">
-        <f>(D15^2-C15^2)/(B15^2-A15^2)</f>
+        <f t="shared" si="0"/>
         <v>1.1161358729545259</v>
       </c>
       <c r="I15" s="3">
@@ -11507,7 +11146,7 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="H16" s="3">
-        <f>(D16^2-C16^2)/(B16^2-A16^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0747807916979055</v>
       </c>
       <c r="I16" s="3">
@@ -11537,7 +11176,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="H17" s="3">
-        <f>(D17^2-C17^2)/(B17^2-A17^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0505979141017376</v>
       </c>
       <c r="I17" s="3">
@@ -11567,7 +11206,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="H18" s="3">
-        <f>(D18^2-C18^2)/(B18^2-A18^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0355093426610846</v>
       </c>
       <c r="I18" s="3">
@@ -11597,7 +11236,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="H19" s="3">
-        <f>(D19^2-C19^2)/(B19^2-A19^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0256840354093106</v>
       </c>
       <c r="I19" s="3">
@@ -11627,7 +11266,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="H20" s="3">
-        <f>(D20^2-C20^2)/(B20^2-A20^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0190463765888564</v>
       </c>
       <c r="I20" s="3">
@@ -11657,7 +11296,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="H21" s="3">
-        <f>(D21^2-C21^2)/(B21^2-A21^2)</f>
+        <f t="shared" si="0"/>
         <v>3.0343481654957065</v>
       </c>
       <c r="I21" s="3">
@@ -11687,7 +11326,7 @@
         <v>0.70389999999999997</v>
       </c>
       <c r="H22" s="3">
-        <f>(D22^2-C22^2)/(B22^2-A22^2)</f>
+        <f t="shared" si="0"/>
         <v>3.1177446102819237</v>
       </c>
       <c r="I22" s="3">
@@ -11717,7 +11356,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="H23" s="3">
-        <f>(D23^2-C23^2)/(B23^2-A23^2)</f>
+        <f t="shared" si="0"/>
         <v>2.9784142797841429</v>
       </c>
       <c r="I23" s="3">
@@ -11747,7 +11386,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="H24" s="3">
-        <f>(D24^2-C24^2)/(B24^2-A24^2)</f>
+        <f t="shared" si="0"/>
         <v>3.0503125</v>
       </c>
       <c r="I24" s="3">
@@ -11777,7 +11416,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="H25" s="3">
-        <f>(D25^2-C25^2)/(B25^2-A25^2)</f>
+        <f t="shared" si="0"/>
         <v>3.1056493030080703</v>
       </c>
       <c r="I25" s="3">
@@ -11807,7 +11446,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="H26" s="3">
-        <f>(D26^2-C26^2)/(B26^2-A26^2)</f>
+        <f t="shared" si="0"/>
         <v>2.9561011904761907</v>
       </c>
       <c r="I26" s="3">
@@ -11837,7 +11476,7 @@
         <v>1.0222</v>
       </c>
       <c r="H27" s="3">
-        <f>(D27^2-C27^2)/(B27^2-A27^2)</f>
+        <f t="shared" si="0"/>
         <v>3.0081475128644941</v>
       </c>
       <c r="I27" s="3">
@@ -11867,7 +11506,7 @@
         <v>1.0751999999999999</v>
       </c>
       <c r="H28" s="3">
-        <f>(D28^2-C28^2)/(B28^2-A28^2)</f>
+        <f t="shared" si="0"/>
         <v>3.0490018148820326</v>
       </c>
       <c r="I28" s="3">
@@ -11897,7 +11536,7 @@
         <v>1.1116999999999999</v>
       </c>
       <c r="H29" s="3">
-        <f>(D29^2-C29^2)/(B29^2-A29^2)</f>
+        <f t="shared" si="0"/>
         <v>2.9978774455518642</v>
       </c>
       <c r="I29" s="3">
@@ -11927,7 +11566,7 @@
         <v>0.60199999999999998</v>
       </c>
       <c r="H30" s="3">
-        <f>(D30^2-C30^2)/(B30^2-A30^2)</f>
+        <f t="shared" si="0"/>
         <v>4.0123839009287927</v>
       </c>
       <c r="I30" s="3">
@@ -11957,7 +11596,7 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="H31" s="3">
-        <f>(D31^2-C31^2)/(B31^2-A31^2)</f>
+        <f t="shared" si="0"/>
         <v>4.1217798594847777</v>
       </c>
       <c r="I31" s="3">
@@ -11987,7 +11626,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="H32" s="3">
-        <f>(D32^2-C32^2)/(B32^2-A32^2)</f>
+        <f t="shared" si="0"/>
         <v>3.9883913764510779</v>
       </c>
       <c r="I32" s="3">
@@ -12017,7 +11656,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="H33" s="3">
-        <f>(D33^2-C33^2)/(B33^2-A33^2)</f>
+        <f t="shared" si="0"/>
         <v>4.0486111111111107</v>
       </c>
       <c r="I33" s="3">
@@ -12047,7 +11686,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="H34" s="3">
-        <f>(D34^2-C34^2)/(B34^2-A34^2)</f>
+        <f t="shared" si="0"/>
         <v>3.9493670886075951</v>
       </c>
       <c r="I34" s="3">
@@ -12077,7 +11716,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="H35" s="3">
-        <f>(D35^2-C35^2)/(B35^2-A35^2)</f>
+        <f t="shared" si="0"/>
         <v>4.0067640692640696</v>
       </c>
       <c r="I35" s="3">
@@ -12107,7 +11746,7 @@
         <v>0.98260000000000003</v>
       </c>
       <c r="H36" s="3">
-        <f>(D36^2-C36^2)/(B36^2-A36^2)</f>
+        <f t="shared" si="0"/>
         <v>3.5802628743805216</v>
       </c>
       <c r="I36" s="3">
@@ -12137,7 +11776,7 @@
         <v>1.0708</v>
       </c>
       <c r="H37" s="3">
-        <f>(D37^2-C37^2)/(B37^2-A37^2)</f>
+        <f t="shared" si="0"/>
         <v>3.9260000000000002</v>
       </c>
       <c r="I37" s="3">
@@ -12167,7 +11806,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="H38" s="3">
-        <f>(D38^2-C38^2)/(B38^2-A38^2)</f>
+        <f t="shared" si="0"/>
         <v>4.0291184682887913</v>
       </c>
       <c r="I38" s="3">
@@ -12197,7 +11836,7 @@
         <v>0.59</v>
       </c>
       <c r="H39" s="3">
-        <f>(D39^2-C39^2)/(B39^2-A39^2)</f>
+        <f t="shared" si="0"/>
         <v>4.9523809523809526</v>
       </c>
       <c r="I39" s="3">
@@ -12227,7 +11866,7 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="H40" s="3">
-        <f>(D40^2-C40^2)/(B40^2-A40^2)</f>
+        <f t="shared" si="0"/>
         <v>4.6944444444444446</v>
       </c>
       <c r="I40" s="3">
@@ -12257,7 +11896,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="H41" s="3">
-        <f>(D41^2-C41^2)/(B41^2-A41^2)</f>
+        <f t="shared" si="0"/>
         <v>4.8563049853372435</v>
       </c>
       <c r="I41" s="3">
@@ -12287,7 +11926,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="H42" s="3">
-        <f>(D42^2-C42^2)/(B42^2-A42^2)</f>
+        <f t="shared" si="0"/>
         <v>5.0497512437810945</v>
       </c>
       <c r="I42" s="3">
@@ -12317,7 +11956,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="H43" s="3">
-        <f>(D43^2-C43^2)/(B43^2-A43^2)</f>
+        <f t="shared" si="0"/>
         <v>4.9652777777777777</v>
       </c>
       <c r="I43" s="3">
@@ -12347,7 +11986,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="H44" s="3">
-        <f>(D44^2-C44^2)/(B44^2-A44^2)</f>
+        <f t="shared" si="0"/>
         <v>4.9080379080379082</v>
       </c>
       <c r="I44" s="3">
@@ -12377,7 +12016,7 @@
         <v>1.0255000000000001</v>
       </c>
       <c r="H45" s="3">
-        <f>(D45^2-C45^2)/(B45^2-A45^2)</f>
+        <f t="shared" si="0"/>
         <v>5.0072849537685622</v>
       </c>
       <c r="I45" s="3">
@@ -12407,7 +12046,7 @@
         <v>1.0798000000000001</v>
       </c>
       <c r="H46" s="3">
-        <f>(D46^2-C46^2)/(B46^2-A46^2)</f>
+        <f t="shared" si="0"/>
         <v>4.8513251454427921</v>
       </c>
       <c r="I46" s="3">
@@ -12437,7 +12076,7 @@
         <v>1.1366000000000001</v>
       </c>
       <c r="H47" s="3">
-        <f>(D47^2-C47^2)/(B47^2-A47^2)</f>
+        <f t="shared" si="0"/>
         <v>5.0857297883884973</v>
       </c>
       <c r="I47" s="3">

--- a/Codemig/Magnet Fit/Input.xlsx
+++ b/Codemig/Magnet Fit/Input.xlsx
@@ -364,7 +364,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -720,7 +719,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1233,7 +1231,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1540,7 +1537,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1847,7 +1843,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,6 +2212,518 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
+              <c:f>Data!$N$11:$N$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1467307692307693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4167365420090559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3955571338383839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.158390410958904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4323725055432373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4675495929365898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2851731601731602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5316923076923077</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5855871095980207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1437736281360982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4167111823361824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4029536527886881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0460532912788632</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4411639114256085</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3700680272108843</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1491300745650372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4314419610670512</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5689454571096146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3007066967934233</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4580499704316972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3785900783289817</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2666042234332424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4481792717086834</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4328355899419729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2439024390243902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5024759903961584</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3854556803995006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4680876118699953</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0677789363920751</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2941706730769231</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2056390759229161</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4512589285714286</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.019287441322497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3106364228977039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2802004227667736</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4504709940628213</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0371824995283585</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3141794129805704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2817489776659328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0803833333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3149910782695442</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.292126307556946</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5421901284942197</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0063069701593859</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2939701100117622</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2735929347075363</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4727242524916944</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0440174603532677</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3165497161316113</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2772637565084666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4828037496956417</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0356534411625855</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.313302679562391</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2745268924302788</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3971411520645656</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0963306484419495</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3201530612244898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.283780412823891</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2656408632396636</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2592230080289661</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2513982478799814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FB1-4F3D-960B-5B8FCAC1869F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="566864632"/>
+        <c:axId val="566864960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="566864632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566864960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566864960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566864632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
               <c:f>Plan2!$H$2:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2548,7 +3055,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3105,7 +3612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3120,7 +3627,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3822,6 +4328,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7950,20 +8496,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7984,16 +9046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8097,6 +9159,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12772,16 +13864,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG90"/>
+  <dimension ref="A1:CG91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" workbookViewId="0">
-      <selection activeCell="AH41" sqref="AH41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14428,7 +15522,9 @@
       <c r="M11" s="21">
         <v>1.2</v>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="21">
+        <v>0</v>
+      </c>
       <c r="AA11" s="20">
         <v>30</v>
       </c>
@@ -14479,7 +15575,10 @@
       <c r="M12" s="25">
         <v>1.4</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="25">
+        <f>(K12^2-J12^2)/(K11^2-J11^2)</f>
+        <v>1.1467307692307693</v>
+      </c>
       <c r="AA12" s="24">
         <v>30</v>
       </c>
@@ -14530,7 +15629,10 @@
       <c r="M13" s="25">
         <v>1.6</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="25">
+        <f t="shared" ref="N13:N14" si="0">(K13^2-J13^2)/(K12^2-J12^2)</f>
+        <v>1.4167365420090559</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="AA13" s="24">
         <v>30</v>
@@ -14582,7 +15684,10 @@
       <c r="M14" s="25">
         <v>1.8</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3955571338383839</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="AA14" s="24">
         <v>30</v>
@@ -14634,7 +15739,9 @@
       <c r="M15" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="AA15" s="24">
         <v>30</v>
@@ -14686,7 +15793,10 @@
       <c r="M16" s="25">
         <v>1.35</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="25">
+        <f>(K16^2-J16^2)/(K15^2-J15^2)</f>
+        <v>1.158390410958904</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="AA16" s="24">
         <v>30</v>
@@ -14738,7 +15848,10 @@
       <c r="M17" s="25">
         <v>1.55</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="25">
+        <f t="shared" ref="N17:N18" si="1">(K17^2-J17^2)/(K16^2-J16^2)</f>
+        <v>1.4323725055432373</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="AA17" s="24">
         <v>30</v>
@@ -14790,7 +15903,10 @@
       <c r="M18" s="25">
         <v>1.75</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="25">
+        <f t="shared" si="1"/>
+        <v>1.4675495929365898</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="AA18" s="24">
         <v>30</v>
@@ -14842,7 +15958,9 @@
       <c r="M19" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="AA19" s="24">
         <v>30</v>
@@ -14894,7 +16012,10 @@
       <c r="M20" s="25">
         <v>1.3</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="25">
+        <f>(K20^2-J20^2)/(K19^2-J19^2)</f>
+        <v>1.2851731601731602</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="AA20" s="24">
         <v>30</v>
@@ -14946,7 +16067,10 @@
       <c r="M21" s="25">
         <v>1.5</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="25">
+        <f t="shared" ref="N21:N22" si="2">(K21^2-J21^2)/(K20^2-J20^2)</f>
+        <v>1.5316923076923077</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="AA21" s="24">
         <v>30</v>
@@ -14998,7 +16122,10 @@
       <c r="M22" s="25">
         <v>1.7</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="25">
+        <f t="shared" si="2"/>
+        <v>1.5855871095980207</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="AA22" s="24">
         <v>30</v>
@@ -15050,7 +16177,9 @@
       <c r="M23" s="25">
         <v>1.2</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="AA23" s="24">
         <v>30</v>
@@ -15102,7 +16231,10 @@
       <c r="M24" s="25">
         <v>1.4</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="25">
+        <f>(K24^2-J24^2)/(K23^2-J23^2)</f>
+        <v>1.1437736281360982</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="AA24" s="24">
         <v>30</v>
@@ -15154,7 +16286,10 @@
       <c r="M25" s="25">
         <v>1.6</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="25">
+        <f t="shared" ref="N25:N26" si="3">(K25^2-J25^2)/(K24^2-J24^2)</f>
+        <v>1.4167111823361824</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="AA25" s="24">
         <v>30</v>
@@ -15206,7 +16341,10 @@
       <c r="M26" s="25">
         <v>1.8</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="25">
+        <f t="shared" si="3"/>
+        <v>1.4029536527886881</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="AA26" s="24">
         <v>30</v>
@@ -15258,7 +16396,9 @@
       <c r="M27" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="21">
+        <v>0</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="AA27" s="24">
         <v>30</v>
@@ -15310,7 +16450,10 @@
       <c r="M28" s="25">
         <v>1.35</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="25">
+        <f>(K28^2-J28^2)/(K27^2-J27^2)</f>
+        <v>1.0460532912788632</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="AA28" s="24">
         <v>30</v>
@@ -15362,7 +16505,10 @@
       <c r="M29" s="25">
         <v>1.55</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="25">
+        <f t="shared" ref="N29:N30" si="4">(K29^2-J29^2)/(K28^2-J28^2)</f>
+        <v>1.4411639114256085</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="AA29" s="24">
         <v>30</v>
@@ -15414,7 +16560,10 @@
       <c r="M30" s="25">
         <v>1.75</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3700680272108843</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="AA30" s="24">
         <v>30</v>
@@ -15466,7 +16615,9 @@
       <c r="M31" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="AA31" s="24">
         <v>30</v>
@@ -15518,7 +16669,10 @@
       <c r="M32" s="25">
         <v>1.3</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="25">
+        <f>(K32^2-J32^2)/(K31^2-J31^2)</f>
+        <v>1.1491300745650372</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="AA32" s="24">
         <v>30</v>
@@ -15570,7 +16724,10 @@
       <c r="M33" s="25">
         <v>1.5</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="25">
+        <f t="shared" ref="N33:N34" si="5">(K33^2-J33^2)/(K32^2-J32^2)</f>
+        <v>1.4314419610670512</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="AA33" s="24">
         <v>30</v>
@@ -15622,7 +16779,10 @@
       <c r="M34" s="25">
         <v>1.7</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <f t="shared" si="5"/>
+        <v>1.5689454571096146</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="AA34" s="24">
         <v>30</v>
@@ -15674,7 +16834,9 @@
       <c r="M35" s="25">
         <v>1.2</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="21">
+        <v>0</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="AA35" s="24">
         <v>30</v>
@@ -15726,7 +16888,10 @@
       <c r="M36" s="25">
         <v>1.4</v>
       </c>
-      <c r="N36" s="25"/>
+      <c r="N36" s="25">
+        <f>(K36^2-J36^2)/(K35^2-J35^2)</f>
+        <v>1.3007066967934233</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="AA36" s="24">
         <v>30</v>
@@ -15778,7 +16943,10 @@
       <c r="M37" s="25">
         <v>1.6</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="25">
+        <f t="shared" ref="N37:N38" si="6">(K37^2-J37^2)/(K36^2-J36^2)</f>
+        <v>1.4580499704316972</v>
+      </c>
       <c r="O37" s="6"/>
       <c r="AA37" s="24">
         <v>30</v>
@@ -15830,7 +16998,10 @@
       <c r="M38" s="25">
         <v>1.8</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="25">
+        <f t="shared" si="6"/>
+        <v>1.3785900783289817</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="AA38" s="24">
         <v>30</v>
@@ -15882,7 +17053,9 @@
       <c r="M39" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N39" s="25"/>
+      <c r="N39" s="21">
+        <v>0</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="AA39" s="24">
         <v>30</v>
@@ -15934,7 +17107,10 @@
       <c r="M40" s="25">
         <v>1.35</v>
       </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="25">
+        <f>(K40^2-J40^2)/(K39^2-J39^2)</f>
+        <v>1.2666042234332424</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="AA40" s="24">
         <v>30</v>
@@ -15986,7 +17162,10 @@
       <c r="M41" s="25">
         <v>1.55</v>
       </c>
-      <c r="N41" s="25"/>
+      <c r="N41" s="25">
+        <f t="shared" ref="N41:N46" si="7">(K41^2-J41^2)/(K40^2-J40^2)</f>
+        <v>1.4481792717086834</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="AA41" s="24">
         <v>30</v>
@@ -16038,7 +17217,10 @@
       <c r="M42" s="25">
         <v>1.75</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="25">
+        <f t="shared" si="7"/>
+        <v>1.4328355899419729</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="AA42" s="24">
         <v>30</v>
@@ -16090,7 +17272,9 @@
       <c r="M43" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="21">
+        <v>0</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="AA43" s="24">
         <v>30</v>
@@ -16142,7 +17326,10 @@
       <c r="M44" s="25">
         <v>1.3</v>
       </c>
-      <c r="N44" s="25"/>
+      <c r="N44" s="25">
+        <f>(K44^2-J44^2)/(K43^2-J43^2)</f>
+        <v>1.2439024390243902</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="AA44" s="24">
         <v>30</v>
@@ -16194,7 +17381,10 @@
       <c r="M45" s="25">
         <v>1.5</v>
       </c>
-      <c r="N45" s="25"/>
+      <c r="N45" s="25">
+        <f t="shared" si="7"/>
+        <v>1.5024759903961584</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="AA45" s="24">
         <v>30</v>
@@ -16246,7 +17436,10 @@
       <c r="M46" s="25">
         <v>1.7</v>
       </c>
-      <c r="N46" s="25"/>
+      <c r="N46" s="25">
+        <f t="shared" si="7"/>
+        <v>1.3854556803995006</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="AA46" s="24">
         <v>30</v>
@@ -16298,7 +17491,9 @@
       <c r="M47" s="25">
         <v>1.2</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="21">
+        <v>0</v>
+      </c>
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <v>100</v>
@@ -16366,7 +17561,10 @@
       <c r="M48" s="25">
         <v>1.35</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="25">
+        <f>(K48^2-J48^2)/(K47^2-J47^2)</f>
+        <v>1.4680876118699953</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="25">
         <v>100</v>
@@ -16378,7 +17576,7 @@
         <v>192</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" ref="S48:S58" si="0">(Q48^2-P48^2)/(R48^2-Q48^2)/0.6</f>
+        <f t="shared" ref="S48:S58" si="8">(Q48^2-P48^2)/(R48^2-Q48^2)/0.6</f>
         <v>0.32644824311490983</v>
       </c>
       <c r="T48" s="25">
@@ -16434,7 +17632,10 @@
       <c r="M49" s="25">
         <v>1.5</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="25">
+        <f t="shared" ref="N49:N50" si="9">(K49^2-J49^2)/(K48^2-J48^2)</f>
+        <v>1.0677789363920751</v>
+      </c>
       <c r="O49" s="6"/>
       <c r="P49" s="25">
         <v>100</v>
@@ -16446,7 +17647,7 @@
         <v>215</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.23042681330191148</v>
       </c>
       <c r="T49" s="25">
@@ -16502,7 +17703,10 @@
       <c r="M50" s="25">
         <v>1.65</v>
       </c>
-      <c r="N50" s="25"/>
+      <c r="N50" s="25">
+        <f t="shared" si="9"/>
+        <v>1.2941706730769231</v>
+      </c>
       <c r="O50" s="6"/>
       <c r="P50" s="25">
         <v>100</v>
@@ -16514,7 +17718,7 @@
         <v>243</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.16424406668309108</v>
       </c>
       <c r="T50" s="25">
@@ -16570,7 +17774,10 @@
       <c r="M51" s="25">
         <v>1.8</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="25">
+        <f>(K51^2-J51^2)/(K50^2-J50^2)</f>
+        <v>1.2056390759229161</v>
+      </c>
       <c r="O51" s="6"/>
       <c r="P51" s="25">
         <v>100</v>
@@ -16582,7 +17789,7 @@
         <v>209</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.38020705141645172</v>
       </c>
       <c r="T51" s="25">
@@ -16626,7 +17833,9 @@
       <c r="M52" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="21">
+        <v>0</v>
+      </c>
       <c r="O52" s="6"/>
       <c r="P52" s="25">
         <v>100</v>
@@ -16638,7 +17847,7 @@
         <v>212</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.36346814697330165</v>
       </c>
       <c r="T52" s="25">
@@ -16682,7 +17891,10 @@
       <c r="M53" s="25">
         <v>1.3</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="25">
+        <f>(K53^2-J53^2)/(K52^2-J52^2)</f>
+        <v>1.4512589285714286</v>
+      </c>
       <c r="O53" s="6"/>
       <c r="P53" s="25">
         <v>100</v>
@@ -16694,7 +17906,7 @@
         <v>240</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.25220458553791891</v>
       </c>
       <c r="T53" s="25">
@@ -16738,7 +17950,10 @@
       <c r="M54" s="25">
         <v>1.45</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="25">
+        <f t="shared" ref="N54:N55" si="10">(K54^2-J54^2)/(K53^2-J53^2)</f>
+        <v>1.019287441322497</v>
+      </c>
       <c r="O54" s="6"/>
       <c r="P54" s="25">
         <v>100</v>
@@ -16750,7 +17965,7 @@
         <v>270</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.18408179778586928</v>
       </c>
       <c r="T54" s="25">
@@ -16794,7 +18009,10 @@
       <c r="M55" s="25">
         <v>1.6</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="25">
+        <f t="shared" si="10"/>
+        <v>1.3106364228977039</v>
+      </c>
       <c r="O55" s="6"/>
       <c r="P55" s="25">
         <v>100</v>
@@ -16806,7 +18024,7 @@
         <v>220</v>
       </c>
       <c r="S55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.45429439381386355</v>
       </c>
       <c r="T55" s="25">
@@ -16850,7 +18068,10 @@
       <c r="M56" s="25">
         <v>1.75</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="25">
+        <f>(K56^2-J56^2)/(K55^2-J55^2)</f>
+        <v>1.2802004227667736</v>
+      </c>
       <c r="O56" s="6"/>
       <c r="P56" s="25">
         <v>100</v>
@@ -16862,7 +18083,7 @@
         <v>230</v>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.39533765921653446</v>
       </c>
       <c r="T56" s="25">
@@ -16906,7 +18127,9 @@
       <c r="M57" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="21">
+        <v>0</v>
+      </c>
       <c r="O57" s="6"/>
       <c r="P57" s="25">
         <v>100</v>
@@ -16918,7 +18141,7 @@
         <v>260.5</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.27618141005300334</v>
       </c>
       <c r="T57" s="25">
@@ -16962,7 +18185,10 @@
       <c r="M58" s="25">
         <v>1.25</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="25">
+        <f>(K58^2-J58^2)/(K57^2-J57^2)</f>
+        <v>1.4504709940628213</v>
+      </c>
       <c r="O58" s="6"/>
       <c r="P58" s="25">
         <v>100</v>
@@ -16974,7 +18200,7 @@
         <v>310</v>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0.17602996254681649</v>
       </c>
       <c r="T58" s="25">
@@ -17018,7 +18244,10 @@
       <c r="M59" s="25">
         <v>1.4</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="25">
+        <f t="shared" ref="N59:N60" si="11">(K59^2-J59^2)/(K58^2-J58^2)</f>
+        <v>1.0371824995283585</v>
+      </c>
       <c r="O59" s="9"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -17063,7 +18292,10 @@
       <c r="M60" s="25">
         <v>1.55</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="25">
+        <f t="shared" si="11"/>
+        <v>1.3141794129805704</v>
+      </c>
       <c r="O60" s="9"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -17108,7 +18340,10 @@
       <c r="M61" s="25">
         <v>1.7</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="25">
+        <f>(K61^2-J61^2)/(K60^2-J60^2)</f>
+        <v>1.2817489776659328</v>
+      </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -17152,7 +18387,9 @@
       <c r="M62" s="25">
         <v>1.05</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="21">
+        <v>0</v>
+      </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -17196,7 +18433,10 @@
       <c r="M63" s="25">
         <v>1.2</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="25">
+        <f>(K63^2-J63^2)/(K62^2-J62^2)</f>
+        <v>1.411764705882353</v>
+      </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -17240,7 +18480,10 @@
       <c r="M64" s="25">
         <v>1.35</v>
       </c>
-      <c r="N64" s="25"/>
+      <c r="N64" s="25">
+        <f t="shared" ref="N64:N65" si="12">(K64^2-J64^2)/(K63^2-J63^2)</f>
+        <v>1.0803833333333333</v>
+      </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -17284,7 +18527,10 @@
       <c r="M65" s="25">
         <v>1.5</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="25">
+        <f t="shared" si="12"/>
+        <v>1.3149910782695442</v>
+      </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -17328,7 +18574,10 @@
       <c r="M66" s="25">
         <v>1.65</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="25">
+        <f>(K66^2-J66^2)/(K65^2-J65^2)</f>
+        <v>1.292126307556946</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
@@ -17367,7 +18616,9 @@
       <c r="M67" s="25">
         <v>1.2</v>
       </c>
-      <c r="N67" s="25"/>
+      <c r="N67" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
@@ -17406,7 +18657,10 @@
       <c r="M68" s="25">
         <v>1.35</v>
       </c>
-      <c r="N68" s="25"/>
+      <c r="N68" s="25">
+        <f>(K68^2-J68^2)/(K67^2-J67^2)</f>
+        <v>1.5421901284942197</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -17445,7 +18699,10 @@
       <c r="M69" s="25">
         <v>1.5</v>
       </c>
-      <c r="N69" s="25"/>
+      <c r="N69" s="25">
+        <f t="shared" ref="N69:N70" si="13">(K69^2-J69^2)/(K68^2-J68^2)</f>
+        <v>1.0063069701593859</v>
+      </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -17484,6 +18741,10 @@
       <c r="M70" s="25">
         <v>1.65</v>
       </c>
+      <c r="N70" s="25">
+        <f t="shared" si="13"/>
+        <v>1.2939701100117622</v>
+      </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -17522,6 +18783,10 @@
       <c r="M71" s="25">
         <v>1.8</v>
       </c>
+      <c r="N71" s="25">
+        <f>(K71^2-J71^2)/(K70^2-J70^2)</f>
+        <v>1.2735929347075363</v>
+      </c>
     </row>
     <row r="72" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
@@ -17560,6 +18825,9 @@
       <c r="M72" s="25">
         <v>1.1499999999999999</v>
       </c>
+      <c r="N72" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
@@ -17598,6 +18866,10 @@
       <c r="M73" s="25">
         <v>1.3</v>
       </c>
+      <c r="N73" s="25">
+        <f>(K73^2-J73^2)/(K72^2-J72^2)</f>
+        <v>1.4727242524916944</v>
+      </c>
     </row>
     <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -17636,6 +18908,10 @@
       <c r="M74" s="25">
         <v>1.45</v>
       </c>
+      <c r="N74" s="25">
+        <f t="shared" ref="N74:N75" si="14">(K74^2-J74^2)/(K73^2-J73^2)</f>
+        <v>1.0440174603532677</v>
+      </c>
     </row>
     <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -17674,6 +18950,10 @@
       <c r="M75" s="25">
         <v>1.6</v>
       </c>
+      <c r="N75" s="25">
+        <f t="shared" si="14"/>
+        <v>1.3165497161316113</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -17712,6 +18992,10 @@
       <c r="M76" s="25">
         <v>1.75</v>
       </c>
+      <c r="N76" s="25">
+        <f>(K76^2-J76^2)/(K75^2-J75^2)</f>
+        <v>1.2772637565084666</v>
+      </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -17750,6 +19034,9 @@
       <c r="M77" s="25">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N77" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H78" s="24">
@@ -17770,6 +19057,10 @@
       <c r="M78" s="25">
         <v>1.25</v>
       </c>
+      <c r="N78" s="25">
+        <f>(K78^2-J78^2)/(K77^2-J77^2)</f>
+        <v>1.4828037496956417</v>
+      </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H79" s="24">
@@ -17790,6 +19081,10 @@
       <c r="M79" s="25">
         <v>1.4</v>
       </c>
+      <c r="N79" s="25">
+        <f t="shared" ref="N79:N80" si="15">(K79^2-J79^2)/(K78^2-J78^2)</f>
+        <v>1.0356534411625855</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H80" s="24">
@@ -17810,8 +19105,12 @@
       <c r="M80" s="25">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="81" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N80" s="25">
+        <f t="shared" si="15"/>
+        <v>1.313302679562391</v>
+      </c>
+    </row>
+    <row r="81" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H81" s="24">
         <v>30</v>
       </c>
@@ -17830,8 +19129,12 @@
       <c r="M81" s="25">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="82" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N81" s="25">
+        <f>(K81^2-J81^2)/(K80^2-J80^2)</f>
+        <v>1.2745268924302788</v>
+      </c>
+    </row>
+    <row r="82" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H82" s="24">
         <v>30</v>
       </c>
@@ -17850,8 +19153,11 @@
       <c r="M82" s="25">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="83" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N82" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H83" s="24">
         <v>30</v>
       </c>
@@ -17870,8 +19176,12 @@
       <c r="M83" s="25">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="84" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N83" s="25">
+        <f>(K83^2-J83^2)/(K82^2-J82^2)</f>
+        <v>1.3971411520645656</v>
+      </c>
+    </row>
+    <row r="84" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H84" s="24">
         <v>30</v>
       </c>
@@ -17890,8 +19200,12 @@
       <c r="M84" s="25">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="85" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N84" s="25">
+        <f t="shared" ref="N84:N85" si="16">(K84^2-J84^2)/(K83^2-J83^2)</f>
+        <v>1.0963306484419495</v>
+      </c>
+    </row>
+    <row r="85" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H85" s="24">
         <v>30</v>
       </c>
@@ -17910,8 +19224,12 @@
       <c r="M85" s="25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="86" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N85" s="25">
+        <f t="shared" si="16"/>
+        <v>1.3201530612244898</v>
+      </c>
+    </row>
+    <row r="86" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H86" s="24">
         <v>30</v>
       </c>
@@ -17930,8 +19248,12 @@
       <c r="M86" s="25">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="87" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N86" s="25">
+        <f>(K86^2-J86^2)/(K85^2-J85^2)</f>
+        <v>1.283780412823891</v>
+      </c>
+    </row>
+    <row r="87" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H87" s="24">
         <v>30</v>
       </c>
@@ -17950,8 +19272,11 @@
       <c r="M87" s="25">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="88" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N87" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H88" s="24">
         <v>30</v>
       </c>
@@ -17970,8 +19295,12 @@
       <c r="M88" s="25">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="89" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="25">
+        <f>(K88^2-J88^2)/(K87^2-J87^2)</f>
+        <v>1.2656408632396636</v>
+      </c>
+    </row>
+    <row r="89" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H89" s="24">
         <v>30</v>
       </c>
@@ -17990,8 +19319,12 @@
       <c r="M89" s="25">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="90" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N89" s="25">
+        <f t="shared" ref="N89:N90" si="17">(K89^2-J89^2)/(K88^2-J88^2)</f>
+        <v>1.2592230080289661</v>
+      </c>
+    </row>
+    <row r="90" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H90" s="24">
         <v>30</v>
       </c>
@@ -18010,6 +19343,13 @@
       <c r="M90" s="25">
         <v>2.25</v>
       </c>
+      <c r="N90" s="25">
+        <f t="shared" si="17"/>
+        <v>1.2513982478799814</v>
+      </c>
+    </row>
+    <row r="91" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N91" s="25"/>
     </row>
   </sheetData>
   <sortState ref="P47:T65">

--- a/Codemig/Magnet Fit/Input.xlsx
+++ b/Codemig/Magnet Fit/Input.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="5" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId4"/>
-    <sheet name="Calculation" sheetId="3" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
+    <sheet name="Calculation" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +101,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +134,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,11 +239,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +352,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2661,7 +2749,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3070,7 +3157,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13864,10 +13950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG91"/>
+  <dimension ref="A1:CI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:CI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13878,11 +13964,11 @@
     <col min="15" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20">
         <v>30</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="20">
         <v>30</v>
       </c>
       <c r="C1" s="24">
@@ -13894,7 +13980,7 @@
       <c r="E1" s="24">
         <v>30</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="24">
         <v>30</v>
       </c>
       <c r="G1" s="24">
@@ -14125,27 +14211,39 @@
       <c r="CD1" s="24">
         <v>30</v>
       </c>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-    </row>
-    <row r="2" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CE1" s="24">
+        <v>30</v>
+      </c>
+      <c r="CF1" s="24">
+        <v>30</v>
+      </c>
+      <c r="CG1" s="24">
+        <v>30</v>
+      </c>
+      <c r="CH1" s="24">
+        <v>30</v>
+      </c>
+      <c r="CI1" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>80</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="20">
         <v>80</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>80</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>80</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>80</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="24">
         <v>80</v>
       </c>
       <c r="G2" s="24">
@@ -14170,16 +14268,16 @@
         <v>80</v>
       </c>
       <c r="N2" s="24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O2" s="24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P2" s="24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="24">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="R2" s="24">
         <v>100</v>
@@ -14206,16 +14304,16 @@
         <v>100</v>
       </c>
       <c r="Z2" s="24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA2" s="24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AC2" s="24">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="24">
         <v>120</v>
@@ -14242,16 +14340,16 @@
         <v>120</v>
       </c>
       <c r="AL2" s="24">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AM2" s="24">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN2" s="24">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO2" s="24">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AP2" s="24">
         <v>140</v>
@@ -14302,16 +14400,16 @@
         <v>140</v>
       </c>
       <c r="BF2" s="24">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="BG2" s="24">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="BH2" s="24">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="BI2" s="24">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="BJ2" s="24">
         <v>155</v>
@@ -14362,29 +14460,41 @@
         <v>155</v>
       </c>
       <c r="BZ2" s="24">
+        <v>170</v>
+      </c>
+      <c r="CA2" s="24">
+        <v>170</v>
+      </c>
+      <c r="CB2" s="24">
+        <v>170</v>
+      </c>
+      <c r="CC2" s="24">
+        <v>170</v>
+      </c>
+      <c r="CD2" s="21">
+        <v>140</v>
+      </c>
+      <c r="CE2" s="25">
+        <v>140</v>
+      </c>
+      <c r="CF2" s="21">
+        <v>120</v>
+      </c>
+      <c r="CG2" s="25">
         <v>155</v>
       </c>
-      <c r="CA2" s="24">
+      <c r="CH2" s="25">
         <v>155</v>
       </c>
-      <c r="CB2" s="24">
-        <v>155</v>
-      </c>
-      <c r="CC2" s="24">
-        <v>155</v>
-      </c>
-      <c r="CD2" s="24">
+      <c r="CI2" s="25">
         <v>170</v>
       </c>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-    </row>
-    <row r="3" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:87" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>100</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>100</v>
       </c>
       <c r="C3" s="26">
@@ -14394,160 +14504,160 @@
         <v>100</v>
       </c>
       <c r="E3" s="26">
+        <v>100</v>
+      </c>
+      <c r="F3" s="26">
         <v>107.5</v>
       </c>
-      <c r="F3" s="22">
-        <v>100</v>
-      </c>
       <c r="G3" s="26">
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="H3" s="26">
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="I3" s="26">
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="J3" s="26">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="K3" s="26">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="L3" s="26">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="M3" s="26">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="N3" s="26">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O3" s="26">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P3" s="26">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="26">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R3" s="26">
-        <v>120</v>
+        <v>127.5</v>
       </c>
       <c r="S3" s="26">
-        <v>120</v>
+        <v>127.5</v>
       </c>
       <c r="T3" s="26">
-        <v>120</v>
+        <v>127.5</v>
       </c>
       <c r="U3" s="26">
-        <v>120</v>
+        <v>127.5</v>
       </c>
       <c r="V3" s="26">
-        <v>127.5</v>
+        <v>135</v>
       </c>
       <c r="W3" s="26">
-        <v>127.5</v>
+        <v>135</v>
       </c>
       <c r="X3" s="26">
-        <v>127.5</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="26">
-        <v>127.5</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="26">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="26">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AB3" s="26">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AC3" s="26">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="26">
-        <v>140</v>
+        <v>147.5</v>
       </c>
       <c r="AE3" s="26">
-        <v>140</v>
+        <v>147.5</v>
       </c>
       <c r="AF3" s="26">
-        <v>140</v>
+        <v>147.5</v>
       </c>
       <c r="AG3" s="26">
-        <v>140</v>
+        <v>147.5</v>
       </c>
       <c r="AH3" s="26">
-        <v>147.5</v>
+        <v>155</v>
       </c>
       <c r="AI3" s="26">
-        <v>147.5</v>
+        <v>155</v>
       </c>
       <c r="AJ3" s="26">
-        <v>147.5</v>
+        <v>155</v>
       </c>
       <c r="AK3" s="26">
-        <v>147.5</v>
+        <v>155</v>
       </c>
       <c r="AL3" s="26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AM3" s="26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AN3" s="26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AO3" s="26">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AP3" s="26">
         <v>160</v>
       </c>
       <c r="AQ3" s="26">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AR3" s="26">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AS3" s="26">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AT3" s="26">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AU3" s="26">
         <v>165</v>
       </c>
       <c r="AV3" s="26">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AW3" s="26">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AX3" s="26">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AY3" s="26">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AZ3" s="26">
         <v>170</v>
       </c>
       <c r="BA3" s="26">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BB3" s="26">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BC3" s="26">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BD3" s="26">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BE3" s="26">
         <v>175</v>
@@ -14568,46 +14678,46 @@
         <v>175</v>
       </c>
       <c r="BK3" s="26">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BL3" s="26">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BM3" s="26">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BN3" s="26">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BO3" s="26">
         <v>180</v>
       </c>
       <c r="BP3" s="26">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BQ3" s="26">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BR3" s="26">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BS3" s="26">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="BT3" s="26">
         <v>185</v>
       </c>
       <c r="BU3" s="26">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BV3" s="26">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BW3" s="26">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BX3" s="26">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BY3" s="26">
         <v>190</v>
@@ -14624,265 +14734,289 @@
       <c r="CC3" s="26">
         <v>190</v>
       </c>
-      <c r="CD3" s="26">
-        <v>190</v>
-      </c>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="26"/>
-      <c r="CG3" s="26"/>
-    </row>
-    <row r="4" spans="1:85" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CD3" s="31">
+        <v>170</v>
+      </c>
+      <c r="CE3" s="38">
+        <v>170</v>
+      </c>
+      <c r="CF3" s="31">
+        <v>147.5</v>
+      </c>
+      <c r="CG3" s="38">
+        <v>175</v>
+      </c>
+      <c r="CH3" s="38">
+        <v>185</v>
+      </c>
+      <c r="CI3" s="38">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>160</v>
       </c>
       <c r="B4" s="23">
+        <v>160</v>
+      </c>
+      <c r="C4" s="23">
         <v>167</v>
       </c>
-      <c r="C4" s="23">
+      <c r="D4" s="23">
         <v>188</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="23">
         <v>213</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="23">
         <v>180.5</v>
       </c>
-      <c r="F4" s="23">
-        <v>160</v>
-      </c>
       <c r="G4" s="23">
-        <v>167</v>
+        <v>189.5</v>
       </c>
       <c r="H4" s="23">
-        <v>188</v>
+        <v>215.5</v>
       </c>
       <c r="I4" s="23">
-        <v>213</v>
+        <v>250.5</v>
       </c>
       <c r="J4" s="23">
-        <v>180.5</v>
+        <v>193</v>
       </c>
       <c r="K4" s="23">
-        <v>189.5</v>
+        <v>210</v>
       </c>
       <c r="L4" s="23">
-        <v>215.5</v>
+        <v>246</v>
       </c>
       <c r="M4" s="23">
-        <v>250.5</v>
+        <v>297</v>
       </c>
       <c r="N4" s="23">
-        <v>193</v>
+        <v>184.5</v>
       </c>
       <c r="O4" s="23">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="P4" s="23">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="23">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="R4" s="23">
-        <v>184.5</v>
+        <v>209</v>
       </c>
       <c r="S4" s="23">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="T4" s="23">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="U4" s="23">
+        <v>270</v>
+      </c>
+      <c r="V4" s="23">
+        <v>220</v>
+      </c>
+      <c r="W4" s="23">
+        <v>230</v>
+      </c>
+      <c r="X4" s="23">
+        <v>260.5</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>310</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>201</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>216</v>
+      </c>
+      <c r="AB4" s="23">
         <v>243</v>
       </c>
-      <c r="V4" s="23">
-        <v>209</v>
-      </c>
-      <c r="W4" s="23">
-        <v>212</v>
-      </c>
-      <c r="X4" s="23">
-        <v>240</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>270</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>220</v>
-      </c>
-      <c r="AA4" s="23">
-        <v>230</v>
-      </c>
-      <c r="AB4" s="23">
+      <c r="AC4" s="28">
+        <v>272</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>219.5</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>235</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>265</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>302</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>237</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>253</v>
+      </c>
+      <c r="AJ4" s="28">
+        <v>290</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>327.5</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>226</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>251</v>
+      </c>
+      <c r="AN4" s="28">
+        <v>256</v>
+      </c>
+      <c r="AO4" s="28">
+        <v>278</v>
+      </c>
+      <c r="AP4" s="29">
+        <v>296.5</v>
+      </c>
+      <c r="AQ4" s="29">
+        <v>235</v>
+      </c>
+      <c r="AR4" s="29">
         <v>260.5</v>
       </c>
-      <c r="AC4" s="23">
-        <v>310</v>
-      </c>
-      <c r="AD4" s="23">
-        <v>201</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>216</v>
-      </c>
-      <c r="AF4" s="23">
+      <c r="AS4" s="29">
+        <v>262</v>
+      </c>
+      <c r="AT4" s="29">
+        <v>285.5</v>
+      </c>
+      <c r="AU4" s="29">
+        <v>311</v>
+      </c>
+      <c r="AV4" s="29">
         <v>243</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AW4" s="29">
+        <v>269.5</v>
+      </c>
+      <c r="AX4" s="29">
+        <v>272.5</v>
+      </c>
+      <c r="AY4" s="29">
+        <v>297.5</v>
+      </c>
+      <c r="AZ4" s="29">
+        <v>324.5</v>
+      </c>
+      <c r="BA4" s="29">
+        <v>250</v>
+      </c>
+      <c r="BB4" s="29">
+        <v>275</v>
+      </c>
+      <c r="BC4" s="29">
+        <v>281.5</v>
+      </c>
+      <c r="BD4" s="29">
+        <v>307.5</v>
+      </c>
+      <c r="BE4" s="29">
+        <v>336.5</v>
+      </c>
+      <c r="BF4" s="29">
+        <v>242</v>
+      </c>
+      <c r="BG4" s="29">
+        <v>271.5</v>
+      </c>
+      <c r="BH4" s="30">
         <v>272</v>
       </c>
-      <c r="AH4" s="28">
-        <v>219.5</v>
-      </c>
-      <c r="AI4" s="28">
-        <v>235</v>
-      </c>
-      <c r="AJ4" s="28">
-        <v>265</v>
-      </c>
-      <c r="AK4" s="28">
-        <v>302</v>
-      </c>
-      <c r="AL4" s="28">
-        <v>237</v>
-      </c>
-      <c r="AM4" s="28">
-        <v>253</v>
-      </c>
-      <c r="AN4" s="28">
-        <v>290</v>
-      </c>
-      <c r="AO4" s="28">
+      <c r="BI4" s="29">
+        <v>294.5</v>
+      </c>
+      <c r="BJ4" s="29">
+        <v>319.5</v>
+      </c>
+      <c r="BK4" s="29">
+        <v>250</v>
+      </c>
+      <c r="BL4" s="29">
+        <v>277</v>
+      </c>
+      <c r="BM4" s="29">
+        <v>280.5</v>
+      </c>
+      <c r="BN4" s="29">
+        <v>305.5</v>
+      </c>
+      <c r="BO4" s="29">
+        <v>332</v>
+      </c>
+      <c r="BP4" s="29">
+        <v>259</v>
+      </c>
+      <c r="BQ4" s="29">
+        <v>288</v>
+      </c>
+      <c r="BR4" s="29">
+        <v>291</v>
+      </c>
+      <c r="BS4" s="29">
+        <v>317</v>
+      </c>
+      <c r="BT4" s="29">
+        <v>344.5</v>
+      </c>
+      <c r="BU4" s="29">
+        <v>267</v>
+      </c>
+      <c r="BV4" s="29">
+        <v>292</v>
+      </c>
+      <c r="BW4" s="29">
+        <v>300</v>
+      </c>
+      <c r="BX4" s="29">
         <v>327.5</v>
       </c>
-      <c r="AP4" s="28">
-        <v>226</v>
-      </c>
-      <c r="AQ4" s="28">
-        <v>251</v>
-      </c>
-      <c r="AR4" s="28">
-        <v>256</v>
-      </c>
-      <c r="AS4" s="28">
-        <v>278</v>
-      </c>
-      <c r="AT4" s="29">
-        <v>296.5</v>
-      </c>
-      <c r="AU4" s="29">
-        <v>235</v>
-      </c>
-      <c r="AV4" s="29">
+      <c r="BY4" s="29">
+        <v>357</v>
+      </c>
+      <c r="BZ4" s="29">
+        <v>341.5</v>
+      </c>
+      <c r="CA4" s="29">
+        <v>371.5</v>
+      </c>
+      <c r="CB4" s="29">
+        <v>405.5</v>
+      </c>
+      <c r="CC4" s="29">
+        <v>443.5</v>
+      </c>
+      <c r="CD4" s="37">
+        <v>232.5</v>
+      </c>
+      <c r="CE4" s="37">
         <v>260.5</v>
       </c>
-      <c r="AW4" s="29">
-        <v>262</v>
-      </c>
-      <c r="AX4" s="29">
-        <v>285.5</v>
-      </c>
-      <c r="AY4" s="29">
-        <v>311</v>
-      </c>
-      <c r="AZ4" s="29">
-        <v>243</v>
-      </c>
-      <c r="BA4" s="29">
-        <v>269.5</v>
-      </c>
-      <c r="BB4" s="29">
-        <v>272.5</v>
-      </c>
-      <c r="BC4" s="29">
-        <v>297.5</v>
-      </c>
-      <c r="BD4" s="29">
-        <v>324.5</v>
-      </c>
-      <c r="BE4" s="29">
-        <v>250</v>
-      </c>
-      <c r="BF4" s="29">
+      <c r="CF4" s="37">
+        <v>248</v>
+      </c>
+      <c r="CG4" s="37">
+        <v>264</v>
+      </c>
+      <c r="CH4" s="37">
         <v>275</v>
       </c>
-      <c r="BG4" s="29">
-        <v>281.5</v>
-      </c>
-      <c r="BH4" s="29">
-        <v>307.5</v>
-      </c>
-      <c r="BI4" s="29">
-        <v>336.5</v>
-      </c>
-      <c r="BJ4" s="29">
-        <v>242</v>
-      </c>
-      <c r="BK4" s="29">
-        <v>271.5</v>
-      </c>
-      <c r="BL4" s="30">
-        <v>272</v>
-      </c>
-      <c r="BM4" s="29">
-        <v>294.5</v>
-      </c>
-      <c r="BN4" s="29">
-        <v>319.5</v>
-      </c>
-      <c r="BO4" s="29">
-        <v>250</v>
-      </c>
-      <c r="BP4" s="29">
-        <v>277</v>
-      </c>
-      <c r="BQ4" s="29">
-        <v>280.5</v>
-      </c>
-      <c r="BR4" s="29">
-        <v>305.5</v>
-      </c>
-      <c r="BS4" s="29">
-        <v>332</v>
-      </c>
-      <c r="BT4" s="29">
-        <v>259</v>
-      </c>
-      <c r="BU4" s="29">
-        <v>288</v>
-      </c>
-      <c r="BV4" s="29">
-        <v>291</v>
-      </c>
-      <c r="BW4" s="29">
-        <v>317</v>
-      </c>
-      <c r="BX4" s="29">
-        <v>344.5</v>
-      </c>
-      <c r="BY4" s="29">
-        <v>267</v>
-      </c>
-      <c r="BZ4" s="29">
-        <v>292</v>
-      </c>
-      <c r="CA4" s="29">
-        <v>300</v>
-      </c>
-      <c r="CB4" s="29">
-        <v>327.5</v>
-      </c>
-      <c r="CC4" s="29">
-        <v>357</v>
-      </c>
-      <c r="CD4" s="29">
-        <v>341.5</v>
-      </c>
-      <c r="CE4" s="29"/>
-      <c r="CF4" s="29"/>
-      <c r="CG4" s="29"/>
-    </row>
-    <row r="5" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CI4" s="37">
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>1.26</v>
       </c>
@@ -15126,184 +15260,196 @@
       <c r="CC5" s="27">
         <v>1.26</v>
       </c>
-      <c r="CD5" s="27">
-        <v>1.26</v>
-      </c>
-      <c r="CE5" s="27"/>
-      <c r="CF5" s="27"/>
-      <c r="CG5" s="27"/>
-    </row>
-    <row r="6" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CD5" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="CE5" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="CF5" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="CG5" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="CH5" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="CI5" s="42">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>1.2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="25">
         <v>1.4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="D6" s="25">
         <v>1.6</v>
       </c>
-      <c r="D6" s="25">
+      <c r="E6" s="25">
         <v>1.8</v>
       </c>
-      <c r="E6" s="25">
+      <c r="F6" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F6" s="21">
+      <c r="G6" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K6" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="N6" s="25">
         <v>1.2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="O6" s="25">
         <v>1.4</v>
       </c>
-      <c r="H6" s="25">
+      <c r="P6" s="25">
         <v>1.6</v>
       </c>
-      <c r="I6" s="25">
+      <c r="Q6" s="25">
         <v>1.8</v>
       </c>
-      <c r="J6" s="25">
+      <c r="R6" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K6" s="25">
+      <c r="S6" s="25">
         <v>1.35</v>
       </c>
-      <c r="L6" s="25">
+      <c r="T6" s="25">
         <v>1.55</v>
       </c>
-      <c r="M6" s="25">
+      <c r="U6" s="25">
         <v>1.75</v>
       </c>
-      <c r="N6" s="25">
+      <c r="V6" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O6" s="25">
+      <c r="W6" s="25">
         <v>1.3</v>
       </c>
-      <c r="P6" s="25">
+      <c r="X6" s="25">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Y6" s="25">
         <v>1.7</v>
       </c>
-      <c r="R6" s="25">
+      <c r="Z6" s="25">
         <v>1.2</v>
       </c>
-      <c r="S6" s="25">
+      <c r="AA6" s="25">
         <v>1.4</v>
       </c>
-      <c r="T6" s="25">
+      <c r="AB6" s="25">
         <v>1.6</v>
       </c>
-      <c r="U6" s="25">
+      <c r="AC6" s="25">
         <v>1.8</v>
       </c>
-      <c r="V6" s="25">
+      <c r="AD6" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="W6" s="25">
+      <c r="AE6" s="25">
         <v>1.35</v>
       </c>
-      <c r="X6" s="25">
+      <c r="AF6" s="25">
         <v>1.55</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="AG6" s="25">
         <v>1.75</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="AH6" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA6" s="25">
+      <c r="AI6" s="25">
         <v>1.3</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AJ6" s="25">
         <v>1.5</v>
       </c>
-      <c r="AC6" s="25">
+      <c r="AK6" s="25">
         <v>1.7</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AL6" s="25">
         <v>1.2</v>
       </c>
-      <c r="AE6" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="AF6" s="25">
-        <v>1.6</v>
-      </c>
-      <c r="AG6" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="AH6" s="25">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AI6" s="25">
+      <c r="AM6" s="25">
         <v>1.35</v>
-      </c>
-      <c r="AJ6" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="AK6" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="AL6" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AM6" s="25">
-        <v>1.3</v>
       </c>
       <c r="AN6" s="25">
         <v>1.5</v>
       </c>
       <c r="AO6" s="25">
+        <v>1.65</v>
+      </c>
+      <c r="AP6" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="AQ6" s="25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AR6" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="AS6" s="25">
+        <v>1.45</v>
+      </c>
+      <c r="AT6" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="AU6" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="AV6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW6" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="AX6" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="AY6" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="AZ6" s="25">
         <v>1.7</v>
       </c>
-      <c r="AP6" s="25">
+      <c r="BA6" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="BB6" s="25">
         <v>1.2</v>
       </c>
-      <c r="AQ6" s="25">
+      <c r="BC6" s="25">
         <v>1.35</v>
       </c>
-      <c r="AR6" s="25">
+      <c r="BD6" s="25">
         <v>1.5</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="BE6" s="25">
         <v>1.65</v>
-      </c>
-      <c r="AT6" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="AU6" s="25">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AV6" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="AW6" s="25">
-        <v>1.45</v>
-      </c>
-      <c r="AX6" s="25">
-        <v>1.6</v>
-      </c>
-      <c r="AY6" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="AZ6" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BA6" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="BB6" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="BC6" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="BD6" s="25">
-        <v>1.7</v>
-      </c>
-      <c r="BE6" s="25">
-        <v>1.05</v>
       </c>
       <c r="BF6" s="25">
         <v>1.2</v>
@@ -15318,73 +15464,85 @@
         <v>1.65</v>
       </c>
       <c r="BJ6" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="BK6" s="25">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BL6" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="BM6" s="25">
+        <v>1.45</v>
+      </c>
+      <c r="BN6" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="BO6" s="25">
+        <v>1.75</v>
+      </c>
+      <c r="BP6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BQ6" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="BR6" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="BS6" s="25">
+        <v>1.55</v>
+      </c>
+      <c r="BT6" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="BU6" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="BV6" s="25">
         <v>1.2</v>
       </c>
-      <c r="BK6" s="25">
+      <c r="BW6" s="25">
         <v>1.35</v>
       </c>
-      <c r="BL6" s="25">
+      <c r="BX6" s="25">
         <v>1.5</v>
       </c>
-      <c r="BM6" s="25">
+      <c r="BY6" s="25">
         <v>1.65</v>
       </c>
-      <c r="BN6" s="25">
+      <c r="BZ6" s="25">
         <v>1.8</v>
       </c>
-      <c r="BO6" s="25">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="BP6" s="25">
+      <c r="CA6" s="25">
+        <v>1.95</v>
+      </c>
+      <c r="CB6" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="CC6" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="CD6" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CE6" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="CF6" s="21">
+        <v>1.55</v>
+      </c>
+      <c r="CG6" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="CH6" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="CI6" s="25">
         <v>1.3</v>
       </c>
-      <c r="BQ6" s="25">
-        <v>1.45</v>
-      </c>
-      <c r="BR6" s="25">
-        <v>1.6</v>
-      </c>
-      <c r="BS6" s="25">
-        <v>1.75</v>
-      </c>
-      <c r="BT6" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BU6" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="BV6" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="BW6" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="BX6" s="25">
-        <v>1.7</v>
-      </c>
-      <c r="BY6" s="25">
-        <v>1.05</v>
-      </c>
-      <c r="BZ6" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="CA6" s="25">
-        <v>1.35</v>
-      </c>
-      <c r="CB6" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="CC6" s="25">
-        <v>1.65</v>
-      </c>
-      <c r="CD6" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="CE6" s="25"/>
-      <c r="CF6" s="25"/>
-      <c r="CG6" s="25"/>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -15434,7 +15592,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -15482,10 +15640,10 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
     </row>
-    <row r="10" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>20</v>
       </c>
@@ -15538,7 +15696,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -15592,7 +15750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>20</v>
       </c>
@@ -15647,7 +15805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -15702,7 +15860,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -15756,7 +15914,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="16" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>20</v>
       </c>
@@ -19349,7 +19507,125 @@
       </c>
     </row>
     <row r="91" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="24">
+        <v>30</v>
+      </c>
+      <c r="I91" s="21">
+        <v>140</v>
+      </c>
+      <c r="J91" s="31">
+        <v>170</v>
+      </c>
+      <c r="K91" s="37">
+        <v>232.5</v>
+      </c>
+      <c r="L91" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M91" s="21">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="N91" s="25"/>
+    </row>
+    <row r="92" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="24">
+        <v>30</v>
+      </c>
+      <c r="I92" s="25">
+        <v>140</v>
+      </c>
+      <c r="J92" s="38">
+        <v>170</v>
+      </c>
+      <c r="K92" s="37">
+        <v>260.5</v>
+      </c>
+      <c r="L92" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M92" s="25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="93" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="24">
+        <v>30</v>
+      </c>
+      <c r="I93" s="21">
+        <v>120</v>
+      </c>
+      <c r="J93" s="31">
+        <v>147.5</v>
+      </c>
+      <c r="K93" s="37">
+        <v>248</v>
+      </c>
+      <c r="L93" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M93" s="21">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="94" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="24">
+        <v>30</v>
+      </c>
+      <c r="I94" s="25">
+        <v>155</v>
+      </c>
+      <c r="J94" s="38">
+        <v>175</v>
+      </c>
+      <c r="K94" s="37">
+        <v>264</v>
+      </c>
+      <c r="L94" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M94" s="25">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="95" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="24">
+        <v>30</v>
+      </c>
+      <c r="I95" s="25">
+        <v>155</v>
+      </c>
+      <c r="J95" s="38">
+        <v>185</v>
+      </c>
+      <c r="K95" s="37">
+        <v>275</v>
+      </c>
+      <c r="L95" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M95" s="25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="96" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="24">
+        <v>30</v>
+      </c>
+      <c r="I96" s="25">
+        <v>170</v>
+      </c>
+      <c r="J96" s="38">
+        <v>195</v>
+      </c>
+      <c r="K96" s="37">
+        <v>283.5</v>
+      </c>
+      <c r="L96" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="M96" s="25">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="P47:T65">
@@ -19361,6 +19637,419 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21">
+        <v>140</v>
+      </c>
+      <c r="C1" s="31">
+        <v>170</v>
+      </c>
+      <c r="D1" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="21">
+        <v>232.077</v>
+      </c>
+      <c r="G1" s="21">
+        <v>1.150409875</v>
+      </c>
+      <c r="H1" s="21">
+        <v>1.198</v>
+      </c>
+      <c r="I1" s="33">
+        <v>4.58E-2</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35">
+        <v>245</v>
+      </c>
+      <c r="L1" s="36">
+        <v>6.6E-4</v>
+      </c>
+      <c r="M1" s="29">
+        <v>12.923400000000001</v>
+      </c>
+      <c r="N1" s="33">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="P1" s="29">
+        <v>16297.012000000001</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>3589.5259999999998</v>
+      </c>
+      <c r="R1" s="29">
+        <v>24641.081999999999</v>
+      </c>
+      <c r="S1" s="33">
+        <v>0.5827</v>
+      </c>
+      <c r="T1" s="34"/>
+      <c r="U1" s="37">
+        <v>228.24</v>
+      </c>
+      <c r="V1" s="37">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>30</v>
+      </c>
+      <c r="B2" s="25">
+        <v>140</v>
+      </c>
+      <c r="C2" s="38">
+        <v>170</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="25">
+        <v>256.03300000000002</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1.3121626239999999</v>
+      </c>
+      <c r="H2" s="25">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="I2" s="33">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35">
+        <v>269.5</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="29">
+        <v>13.4673</v>
+      </c>
+      <c r="N2" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="29">
+        <v>22897.105</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>4626.8734000000004</v>
+      </c>
+      <c r="R2" s="29">
+        <v>34620.423000000003</v>
+      </c>
+      <c r="S2" s="33">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="T2" s="34"/>
+      <c r="U2" s="37">
+        <v>247.35</v>
+      </c>
+      <c r="V2" s="37">
+        <v>260.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21">
+        <v>120</v>
+      </c>
+      <c r="C3" s="31">
+        <v>147.5</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.55</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="21">
+        <v>267.42200000000003</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1.5077183869999999</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I3" s="33">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39">
+        <v>267</v>
+      </c>
+      <c r="L3" s="36">
+        <v>4.9620000000000003E-4</v>
+      </c>
+      <c r="M3" s="29">
+        <v>-0.4224</v>
+      </c>
+      <c r="N3" s="33">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="29">
+        <v>25935.287</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>5751.0160999999998</v>
+      </c>
+      <c r="R3" s="29">
+        <v>39214.154000000002</v>
+      </c>
+      <c r="S3" s="33">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="T3" s="34"/>
+      <c r="U3" s="37">
+        <v>257</v>
+      </c>
+      <c r="V3" s="37">
+        <v>248</v>
+      </c>
+      <c r="W3" s="37">
+        <v>5601.0914000000002</v>
+      </c>
+      <c r="X3" s="37">
+        <v>4.7009999999999999E-4</v>
+      </c>
+      <c r="Y3" s="41">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="AA3" s="34"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>30</v>
+      </c>
+      <c r="B4" s="25">
+        <v>155</v>
+      </c>
+      <c r="C4" s="38">
+        <v>175</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="25">
+        <v>254.72900000000001</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1.489785293</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1.468</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="39">
+        <v>271.5</v>
+      </c>
+      <c r="L4" s="36">
+        <v>6.3900000000000003E-4</v>
+      </c>
+      <c r="M4" s="29">
+        <v>16.7715</v>
+      </c>
+      <c r="N4" s="33">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="29">
+        <v>22560.431</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>3835.6215000000002</v>
+      </c>
+      <c r="R4" s="29">
+        <v>34111.372000000003</v>
+      </c>
+      <c r="S4" s="33">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="T4" s="34"/>
+      <c r="U4" s="37">
+        <v>242</v>
+      </c>
+      <c r="V4" s="37">
+        <v>264</v>
+      </c>
+      <c r="W4" s="37">
+        <v>3913.7060999999999</v>
+      </c>
+      <c r="X4" s="37">
+        <v>3.9730000000000001E-4</v>
+      </c>
+      <c r="Y4" s="41">
+        <v>-8.3299999999999999E-2</v>
+      </c>
+      <c r="AA4" s="34"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>30</v>
+      </c>
+      <c r="B5" s="25">
+        <v>155</v>
+      </c>
+      <c r="C5" s="38">
+        <v>185</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="25">
+        <v>271.83699999999999</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1.320134835</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="I5" s="33">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="39">
+        <v>288</v>
+      </c>
+      <c r="L5" s="36">
+        <v>6.9160000000000001E-4</v>
+      </c>
+      <c r="M5" s="29">
+        <v>16.163</v>
+      </c>
+      <c r="N5" s="33">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="29">
+        <v>25509.208999999999</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>5088.1165000000001</v>
+      </c>
+      <c r="R5" s="29">
+        <v>38569.923999999999</v>
+      </c>
+      <c r="S5" s="33">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="T5" s="34"/>
+      <c r="U5" s="37">
+        <v>263.86</v>
+      </c>
+      <c r="V5" s="37">
+        <v>275</v>
+      </c>
+      <c r="W5" s="37">
+        <v>5137.3522000000003</v>
+      </c>
+      <c r="X5" s="37">
+        <v>5.9579999999999995E-4</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>30</v>
+      </c>
+      <c r="B6" s="25">
+        <v>170</v>
+      </c>
+      <c r="C6" s="38">
+        <v>195</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="25">
+        <v>280.303</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1.403700881</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1.413</v>
+      </c>
+      <c r="I6" s="33">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="39">
+        <v>298.5</v>
+      </c>
+      <c r="L6" s="36">
+        <v>6.7969999999999999E-4</v>
+      </c>
+      <c r="M6" s="29">
+        <v>18.197500000000002</v>
+      </c>
+      <c r="N6" s="33">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="29">
+        <v>26743.986000000001</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>4915.5465999999997</v>
+      </c>
+      <c r="R6" s="29">
+        <v>40436.906000000003</v>
+      </c>
+      <c r="S6" s="33">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="T6" s="34"/>
+      <c r="U6" s="37">
+        <v>270</v>
+      </c>
+      <c r="V6" s="37">
+        <v>283.5</v>
+      </c>
+      <c r="W6" s="37">
+        <v>4946.4292999999998</v>
+      </c>
+      <c r="X6" s="37">
+        <v>5.7930000000000004E-4</v>
+      </c>
+      <c r="Y6" s="41">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="AA6" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
@@ -20779,7 +21468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
